--- a/biology/Botanique/Jardin_d'Embarthe/Jardin_d'Embarthe.xlsx
+++ b/biology/Botanique/Jardin_d'Embarthe/Jardin_d'Embarthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27Embarthe</t>
+          <t>Jardin_d'Embarthe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin d'Embarthe est un jardin public de 4 000 m2 situé entre la rue des Quêteurs et la rue d'Embarthe, dans le quartier Arnaud-Bernard, à Toulouse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27Embarthe</t>
+          <t>Jardin_d'Embarthe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été ouvert au public en 1994 et sa construction date de la rénovation du quartier Arnaud Bernard[A 1]. Il a été rénové début 2013.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27Embarthe</t>
+          <t>Jardin_d'Embarthe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux éléments du jardin sont méditerranéens : cyprès, palmiers, oliviers, micocouliers, phormiums, laurier, mimosas, mais aussi tilleuls et ailantes; quelques poteries bordent les allées[A 1]. Plusieurs espaces sont consacrés au jeu : boulodrome, terrain de basket, jeux pour enfants[A 1]. Une grande fresque d'art urbain orne l'un des murs aveugles en bordure du jardin[A 1].
 			Fresque, terrain de basket, jeux pour enfants.
